--- a/Resource/excel/hero.xlsx
+++ b/Resource/excel/hero.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="hero" sheetId="3" r:id="rId1"/>
+    <sheet name="hero" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -17,18 +17,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Description</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>说明</t>
+    <t>Name</t>
   </si>
   <si>
     <t>英雄id</t>
+  </si>
+  <si>
+    <t>英雄名字</t>
+  </si>
+  <si>
+    <t>乌瑞恩</t>
   </si>
 </sst>
 </file>
@@ -38,8 +41,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -55,8 +58,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -66,72 +78,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,10 +89,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -160,15 +107,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +135,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,9 +164,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,6 +242,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -251,163 +266,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,11 +451,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,41 +529,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,152 +553,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,34 +712,43 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1155,230 +1167,105 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="21.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="7.125" style="5" customWidth="1"/>
-    <col min="3" max="16366" width="9" style="5"/>
+    <col min="1" max="1" width="13" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="53.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="18.875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="6" customWidth="1"/>
+    <col min="8" max="9" width="17.125" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="17.125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="19.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="16" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:2">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:9">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:1">
-      <c r="A3" s="9"/>
+    <row r="3" s="3" customFormat="1" spans="1:9">
+      <c r="A3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11">
+      <c r="A4" s="15">
         <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" s="4" customFormat="1" spans="1:2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11">
+      <c r="A5" s="15">
         <v>2</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" s="4" customFormat="1" spans="1:2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11">
+      <c r="A6" s="15">
         <v>3</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" s="4" customFormat="1" spans="1:2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" spans="1:1">
-      <c r="A8" s="10"/>
-    </row>
-    <row r="9" s="4" customFormat="1" spans="1:2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" s="4" customFormat="1" spans="1:2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" s="4" customFormat="1" spans="1:2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" s="4" customFormat="1" spans="1:2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-    </row>
-    <row r="13" s="4" customFormat="1" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="14" s="4" customFormat="1" spans="1:2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-    </row>
-    <row r="15" s="4" customFormat="1" spans="1:2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-    </row>
-    <row r="16" s="4" customFormat="1" spans="1:2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-    </row>
-    <row r="17" s="4" customFormat="1" spans="1:2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-    </row>
-    <row r="18" s="4" customFormat="1" spans="1:2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" s="4" customFormat="1" spans="1:2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-    </row>
-    <row r="20" s="4" customFormat="1" spans="1:1">
-      <c r="A20" s="10"/>
-    </row>
-    <row r="21" s="4" customFormat="1" spans="1:1">
-      <c r="A21" s="12"/>
-    </row>
-    <row r="22" s="4" customFormat="1" spans="1:2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-    </row>
-    <row r="23" s="4" customFormat="1" spans="1:2">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="24" s="4" customFormat="1" spans="1:2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-    </row>
-    <row r="25" s="4" customFormat="1" spans="1:2">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11"/>
-    </row>
-    <row r="26" s="4" customFormat="1" spans="1:2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" s="4" customFormat="1" spans="1:2">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" s="4" customFormat="1" spans="1:2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" s="5" customFormat="1" spans="1:2">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" s="5" customFormat="1" spans="1:2">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="1:2">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" s="5" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" s="5" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="1:2">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="1:2">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="1:2">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="1:2">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="1:2">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="1:2">
-      <c r="A39" s="10"/>
-      <c r="B39" s="11"/>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="1:2">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="1:1">
-      <c r="A41" s="10"/>
-    </row>
-    <row r="42" s="5" customFormat="1" spans="1:1">
-      <c r="A42" s="13"/>
-    </row>
-    <row r="43" s="5" customFormat="1" spans="1:1">
-      <c r="A43" s="13"/>
-    </row>
-    <row r="44" s="5" customFormat="1" spans="1:1">
-      <c r="A44" s="13"/>
-    </row>
-    <row r="45" s="5" customFormat="1" spans="1:1">
-      <c r="A45" s="13"/>
-    </row>
-    <row r="46" s="5" customFormat="1" spans="1:1">
-      <c r="A46" s="13"/>
-    </row>
-    <row r="47" s="5" customFormat="1" spans="1:1">
-      <c r="A47" s="13"/>
-    </row>
-    <row r="48" s="5" customFormat="1" spans="1:1">
-      <c r="A48" s="13"/>
-    </row>
-    <row r="49" s="5" customFormat="1" spans="1:1">
-      <c r="A49" s="13"/>
-    </row>
-    <row r="50" s="5" customFormat="1" spans="1:1">
-      <c r="A50" s="13"/>
-    </row>
-    <row r="51" s="5" customFormat="1" spans="1:1">
-      <c r="A51" s="13"/>
-    </row>
-    <row r="52" s="5" customFormat="1" spans="1:1">
-      <c r="A52" s="13"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>